--- a/trinhxu2.xlsx
+++ b/trinhxu2.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Trinh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Trinh\Desktop\Workspace\CVUT\NI-MPI\ni-mpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C66EF98B-D339-4FBD-A7E7-6F34D45F0139}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96549819-5180-4FEA-AF47-5BAECF26AB51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$Kč-405];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$Kč-405]"/>
   </numFmts>
@@ -562,22 +562,8 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -592,28 +578,42 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="20">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Result2" xfId="16"/>
-    <cellStyle name="Status" xfId="17"/>
-    <cellStyle name="Text" xfId="18"/>
-    <cellStyle name="Warning" xfId="19"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Result2" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Status" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Text" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Warning" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -638,8 +638,8 @@
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1970796" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextovéPole 4">
@@ -855,7 +855,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextovéPole 4">
@@ -975,8 +975,8 @@
       <xdr:rowOff>533400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="416909" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextovéPole 7">
@@ -1051,7 +1051,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextovéPole 7">
@@ -1116,8 +1116,8 @@
       <xdr:rowOff>260985</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1931876" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextovéPole 5">
@@ -1320,7 +1320,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextovéPole 5">
@@ -1385,8 +1385,8 @@
       <xdr:rowOff>800100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="662938" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextovéPole 8">
@@ -1473,7 +1473,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextovéPole 8">
@@ -1829,11 +1829,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1845,87 +1845,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="58.5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="8">
         <v>13</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="8">
         <v>782</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="8">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="8">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57.75">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="8">
         <v>393</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" thickBot="1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="9">
         <v>0</v>
       </c>
-      <c r="C7" s="8"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1950,12 +1950,12 @@
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1"/>
     <row r="15" spans="1:4" ht="15" thickBot="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/trinhxu2.xlsx
+++ b/trinhxu2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Trinh\Desktop\Workspace\CVUT\NI-MPI\ni-mpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96549819-5180-4FEA-AF47-5BAECF26AB51}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A502D2-EDAD-4E81-B85E-E6DDCB47FDB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>varianta</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>GSc</t>
-  </si>
-  <si>
-    <t>celkový komentář (máte-li)</t>
   </si>
   <si>
     <r>
@@ -160,6 +157,54 @@
   </si>
   <si>
     <t>počet iterací</t>
+  </si>
+  <si>
+    <t>spuštění programu</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Program je psán v programovacím jazyce Python a využívá matematickou knihovnu NumPy, kterou lze nainstalovat zavolání příkazu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>pip install -r requirements.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve"> z kořenového adresáře. Samotný program lze spusit příkazem </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>python main.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>. Po spuštění program vypíše výsledky (počet iterací) pro všechny varianty včetně analýzy podmínek konvergence.</t>
+    </r>
+  </si>
+  <si>
+    <t>celkový komentář</t>
+  </si>
+  <si>
+    <t>Pro implementaci iteračních metod byl použit algoritmus z přednášky, tudíž realizace Jacobiho a Gauss-Seidlovy metody se liší pouze volbou parametru Q. Před zahájením výpočtu jsou nejprve ověřeny nutné a dostačující podmínky konvergence. Není-li splněna nutná podmínka konvergence, je výpočet ukončen.</t>
   </si>
 </sst>
 </file>
@@ -312,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -515,6 +560,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -544,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -562,35 +644,50 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="20">
@@ -633,9 +730,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:colOff>421005</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>146685</xdr:rowOff>
+      <xdr:rowOff>80010</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1970796" cy="174984"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -653,7 +750,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4602480" y="1280160"/>
+              <a:off x="3211830" y="1013460"/>
               <a:ext cx="1970796" cy="174984"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -869,7 +966,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4602480" y="1280160"/>
+              <a:off x="3211830" y="1013460"/>
               <a:ext cx="1970796" cy="174984"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -970,9 +1067,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>973455</xdr:colOff>
+      <xdr:colOff>1173480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
+      <xdr:rowOff>542925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="416909" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -990,7 +1087,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5316855" y="923925"/>
+              <a:off x="3964305" y="733425"/>
               <a:ext cx="416909" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1065,7 +1162,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5316855" y="923925"/>
+              <a:off x="3964305" y="733425"/>
               <a:ext cx="416909" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1111,11 +1208,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>306705</xdr:colOff>
+      <xdr:colOff>240030</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>260985</xdr:rowOff>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1931876" cy="174984"/>
+    <xdr:ext cx="2419444" cy="179665"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1131,8 +1228,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4650105" y="3232785"/>
-              <a:ext cx="1931876" cy="174984"/>
+              <a:off x="3030855" y="2937510"/>
+              <a:ext cx="2419444" cy="179665"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1249,7 +1346,7 @@
                       <a:rPr lang="en-GB" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
-                      <m:t>((−</m:t>
+                      <m:t>(−</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="en-GB" sz="1100" b="0" i="1">
@@ -1300,17 +1397,95 @@
                       </a:rPr>
                       <m:t>+</m:t>
                     </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐷</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>+</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝐿</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:d>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="en-GB" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>−1</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
                     <m:r>
                       <a:rPr lang="en-GB" sz="1100" b="0" i="1">
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       </a:rPr>
                       <m:t>𝑏</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-GB" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>)</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -1334,8 +1509,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4650105" y="3232785"/>
-              <a:ext cx="1931876" cy="174984"/>
+              <a:off x="3030855" y="2937510"/>
+              <a:ext cx="2419444" cy="179665"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1367,7 +1542,37 @@
                 <a:rPr lang="en-GB" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑥_𝑘=(𝐷+𝐿)^(−1) ((−𝑈)𝑥_(𝑘−1)+𝑏)</a:t>
+                <a:t>𝑥_𝑘=(𝐷+𝐿)^(−1) (−𝑈)𝑥_(𝑘−1)+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝐷+𝐿)^(−1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-GB" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑏</a:t>
               </a:r>
               <a:endParaRPr lang="en-GB" sz="1100"/>
             </a:p>
@@ -1380,9 +1585,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:colOff>1143000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>800100</xdr:rowOff>
+      <xdr:rowOff>790575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="662938" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1400,7 +1605,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5153025" y="2857500"/>
+              <a:off x="3933825" y="2647950"/>
               <a:ext cx="662938" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1487,7 +1692,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5153025" y="2857500"/>
+              <a:off x="3933825" y="2647950"/>
               <a:ext cx="662938" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1833,101 +2038,101 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="4" width="72.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="B1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="58.5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>13</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.5">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>782</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="29.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0</v>
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>9</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57.75">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>393</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" thickBot="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>0</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1942,26 +2147,39 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
+    <row r="11" spans="1:4" ht="57" customHeight="1" thickBot="1">
+      <c r="A11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+    </row>
     <row r="14" spans="1:4" ht="15" thickBot="1"/>
-    <row r="15" spans="1:4" ht="15" thickBot="1">
-      <c r="A15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
+    <row r="15" spans="1:4" ht="50.25" customHeight="1" thickBot="1">
+      <c r="A15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/trinhxu2.xlsx
+++ b/trinhxu2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Trinh\Desktop\Workspace\CVUT\NI-MPI\ni-mpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31A502D2-EDAD-4E81-B85E-E6DDCB47FDB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D00F1B-E573-487B-8773-AFF31F2B67ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,51 +111,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>Konverguje</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-Splněna nutná a postačující podmínka: spektrální poloměr matice U: ρ(U) &lt; 1
-Splněna postačující podmínka: matice A je symetrická pozitivně definitní
-Splněna postačující podmínka: matice A je ostře diagonálně dominantní
-Splněna postačující podmínka: existuje (dvojková) norma matice U: ||U|| &lt; 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t>Konverguje</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Liberation Sans"/>
-      </rPr>
-      <t xml:space="preserve">
-Splněna nutná a postačující podmínka: spektrální poloměr matice U: ρ(U) &lt; 1
-Splněna postačující podmínka: matice A je symetrická pozitivně definitní
-Splněna postačující podmínka: existuje (dvojková) norma matice U: ||U|| &lt; 1</t>
-    </r>
-  </si>
-  <si>
     <t>počet iterací</t>
   </si>
   <si>
@@ -205,6 +160,51 @@
   </si>
   <si>
     <t>Pro implementaci iteračních metod byl použit algoritmus z přednášky, tudíž realizace Jacobiho a Gauss-Seidlovy metody se liší pouze volbou parametru Q. Před zahájením výpočtu jsou nejprve ověřeny nutné a dostačující podmínky konvergence. Není-li splněna nutná podmínka konvergence, je výpočet ukončen.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Konverguje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">
+Splněna nutná a postačující podmínka: spektrální poloměr matice U: ρ(U) &lt; 1
+Splněna postačující podmínka: matice A je symetrická a pozitivně definitní
+Splněna postačující podmínka: matice A je ostře diagonálně dominantní
+Splněna postačující podmínka: existuje (dvojková) norma matice U: ||U|| &lt; 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Konverguje</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">
+Splněna nutná a postačující podmínka: spektrální poloměr matice U: ρ(U) &lt; 1
+Splněna postačující podmínka: matice A je symetrická a pozitivně definitní
+Splněna postačující podmínka: existuje (dvojková) norma matice U: ||U|| &lt; 1</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -668,6 +668,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -681,12 +687,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2038,7 +2038,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>1</v>
@@ -2070,7 +2070,7 @@
       <c r="B2" s="7">
         <v>13</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="B3" s="7">
         <v>782</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
@@ -2094,7 +2094,7 @@
       <c r="B4" s="7">
         <v>0</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="17"/>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2106,9 +2106,9 @@
       <c r="B5" s="7">
         <v>9</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="17"/>
       <c r="D5" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57.75">
@@ -2118,9 +2118,9 @@
       <c r="B6" s="7">
         <v>393</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" thickBot="1">
@@ -2130,7 +2130,7 @@
       <c r="B7" s="8">
         <v>0</v>
       </c>
-      <c r="C7" s="16"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
@@ -2155,24 +2155,24 @@
     </row>
     <row r="11" spans="1:4" ht="57" customHeight="1" thickBot="1">
       <c r="A11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1"/>
     <row r="15" spans="1:4" ht="50.25" customHeight="1" thickBot="1">
       <c r="A15" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/trinhxu2.xlsx
+++ b/trinhxu2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David Trinh\Desktop\Workspace\CVUT\NI-MPI\ni-mpi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D00F1B-E573-487B-8773-AFF31F2B67ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F690479A-7011-4DB9-8305-2DF667B0B9F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
     <t>celkový komentář</t>
   </si>
   <si>
-    <t>Pro implementaci iteračních metod byl použit algoritmus z přednášky, tudíž realizace Jacobiho a Gauss-Seidlovy metody se liší pouze volbou parametru Q. Před zahájením výpočtu jsou nejprve ověřeny nutné a dostačující podmínky konvergence. Není-li splněna nutná podmínka konvergence, je výpočet ukončen.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -204,6 +201,28 @@
 Splněna nutná a postačující podmínka: spektrální poloměr matice U: ρ(U) &lt; 1
 Splněna postačující podmínka: matice A je symetrická a pozitivně definitní
 Splněna postačující podmínka: existuje (dvojková) norma matice U: ||U|| &lt; 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pro implementaci iteračních metod byl použit algoritmus z přednášky, tudíž realizace Jacobiho a Gauss-Seidlovy metody se liší pouze volbou parametru Q. Před zahájením výpočtu jsou nejprve ověřeny nutné a dostačující podmínky konvergence. Není-li splněna nutná podmínka konvergence, je výpočet ukončen. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Pozn.: Děkuji za rychlé opravení, upravil jsem požadovanou přesnost v programu a zde výsledný počet iterací</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -2038,7 +2057,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2068,7 +2087,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="4" t="s">
@@ -2080,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="7">
-        <v>782</v>
+        <v>987</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="4" t="s">
@@ -2104,11 +2123,11 @@
         <v>6</v>
       </c>
       <c r="B5" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="57.75">
@@ -2116,11 +2135,11 @@
         <v>7</v>
       </c>
       <c r="B6" s="7">
-        <v>393</v>
+        <v>495</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" thickBot="1">
@@ -2169,7 +2188,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
